--- a/forecast_summary_B0BH6XND27.xlsx
+++ b/forecast_summary_B0BH6XND27.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" t="n">
         <v>147.4860408520495</v>
       </c>
       <c r="D2" t="n">
-        <v>206.5967883332136</v>
+        <v>199.7063807656436</v>
       </c>
       <c r="E2" t="n">
         <v>277</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n">
         <v>122.41593473068</v>
       </c>
       <c r="D3" t="n">
-        <v>176.8942555850024</v>
+        <v>173.2039927821149</v>
       </c>
       <c r="E3" t="n">
         <v>195</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
         <v>107.0988040510242</v>
       </c>
       <c r="D4" t="n">
-        <v>160.2253642674243</v>
+        <v>161.3020433748929</v>
       </c>
       <c r="E4" t="n">
         <v>209</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>96.03666158924166</v>
       </c>
       <c r="D5" t="n">
-        <v>149.185570515587</v>
+        <v>150.2012718563504</v>
       </c>
       <c r="E5" t="n">
         <v>132</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>81.51711338711623</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8804353127863</v>
+        <v>135.0854823152773</v>
       </c>
       <c r="E6" t="n">
         <v>127</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
         <v>62.85034713059773</v>
       </c>
       <c r="D7" t="n">
-        <v>114.2987375474864</v>
+        <v>116.8031509399857</v>
       </c>
       <c r="E7" t="n">
         <v>129</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
         <v>45.7404908567982</v>
       </c>
       <c r="D8" t="n">
-        <v>98.51789926260933</v>
+        <v>103.9400169210681</v>
       </c>
       <c r="E8" t="n">
         <v>133</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
         <v>35.60694400074063</v>
       </c>
       <c r="D9" t="n">
-        <v>89.02654870563659</v>
+        <v>87.27015809930543</v>
       </c>
       <c r="E9" t="n">
         <v>132</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="n">
         <v>33.12613741178138</v>
       </c>
       <c r="D10" t="n">
-        <v>86.27271705924397</v>
+        <v>88.45777929664237</v>
       </c>
       <c r="E10" t="n">
         <v>129</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
         <v>35.32433773417089</v>
       </c>
       <c r="D11" t="n">
-        <v>85.41284762402185</v>
+        <v>87.37022885218282</v>
       </c>
       <c r="E11" t="n">
         <v>127</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
         <v>39.10667279925013</v>
       </c>
       <c r="D12" t="n">
-        <v>91.07615108729482</v>
+        <v>92.91271644473905</v>
       </c>
       <c r="E12" t="n">
         <v>130</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>43.00968851160877</v>
       </c>
       <c r="D13" t="n">
-        <v>94.30187291780649</v>
+        <v>97.88937860186603</v>
       </c>
       <c r="E13" t="n">
         <v>129</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
         <v>46.39765885595496</v>
       </c>
       <c r="D14" t="n">
-        <v>101.1008300560601</v>
+        <v>99.11387547633772</v>
       </c>
       <c r="E14" t="n">
         <v>126</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>48.20833849454664</v>
       </c>
       <c r="D15" t="n">
-        <v>106.4106205061596</v>
+        <v>105.5924410651418</v>
       </c>
       <c r="E15" t="n">
         <v>126</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
         <v>47.02151530366282</v>
       </c>
       <c r="D16" t="n">
-        <v>107.6081248732056</v>
+        <v>103.7787343567356</v>
       </c>
       <c r="E16" t="n">
         <v>127</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>42.20914936509828</v>
       </c>
       <c r="D17" t="n">
-        <v>98.32866968164646</v>
+        <v>96.44329797034503</v>
       </c>
       <c r="E17" t="n">
         <v>127</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>34.78689590537456</v>
       </c>
       <c r="D18" t="n">
-        <v>94.76106362890107</v>
+        <v>94.8417176534917</v>
       </c>
       <c r="E18" t="n">
         <v>118</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
         <v>27.03636728499404</v>
       </c>
       <c r="D19" t="n">
-        <v>85.95439455870562</v>
+        <v>81.80022248393561</v>
       </c>
       <c r="E19" t="n">
         <v>116</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>21.11219600711014</v>
       </c>
       <c r="D20" t="n">
-        <v>80.55796183917793</v>
+        <v>79.29309853662055</v>
       </c>
       <c r="E20" t="n">
         <v>123</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>17.69339312842793</v>
       </c>
       <c r="D21" t="n">
-        <v>76.48141646208174</v>
+        <v>72.23969202554507</v>
       </c>
       <c r="E21" t="n">
         <v>114</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>558</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
